--- a/Monster/Work/Data/Data.xlsx
+++ b/Monster/Work/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EggTable" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>흰알</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>monType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +78,34 @@
   </si>
   <si>
     <t>슬라임 궁수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고블린알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>냥이알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오크알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오우거알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monPrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -457,9 +481,64 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
         <v>10</v>
       </c>
     </row>
@@ -471,10 +550,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -482,7 +561,7 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,42 +569,45 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>1000</v>
@@ -551,16 +633,19 @@
       <c r="K2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>1000</v>
@@ -586,16 +671,19 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>1000</v>
@@ -620,6 +708,9 @@
       </c>
       <c r="K4">
         <v>1</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Monster/Work/Data/Data.xlsx
+++ b/Monster/Work/Data/Data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EggTable" sheetId="1" r:id="rId1"/>
     <sheet name="MonsterTable" sheetId="2" r:id="rId2"/>
+    <sheet name="MonsterlevelTable" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hunger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -106,6 +103,42 @@
   </si>
   <si>
     <t>monPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>minLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalStat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -492,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -503,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -514,7 +547,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -525,7 +558,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -536,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -550,10 +583,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -561,7 +594,7 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,51 +605,54 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -634,30 +670,33 @@
         <v>1</v>
       </c>
       <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
       <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
         <v>10</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -672,36 +711,39 @@
         <v>1</v>
       </c>
       <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>10</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -710,7 +752,1421 @@
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F99"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>20</v>
+      </c>
+      <c r="D20">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>24</v>
+      </c>
+      <c r="D24">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>26</v>
+      </c>
+      <c r="D26">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>31</v>
+      </c>
+      <c r="D31">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>34</v>
+      </c>
+      <c r="D34">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <v>38</v>
+      </c>
+      <c r="D38">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>39</v>
+      </c>
+      <c r="D39">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>40</v>
+      </c>
+      <c r="D40">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>41</v>
+      </c>
+      <c r="D41">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>42</v>
+      </c>
+      <c r="D42">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>43</v>
+      </c>
+      <c r="D43">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45">
+        <v>45</v>
+      </c>
+      <c r="D45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46">
+        <v>46</v>
+      </c>
+      <c r="D46">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47">
+        <v>47</v>
+      </c>
+      <c r="D47">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48">
+        <v>48</v>
+      </c>
+      <c r="D48">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>49</v>
+      </c>
+      <c r="D49">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>50</v>
+      </c>
+      <c r="D50">
+        <v>202</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>51</v>
+      </c>
+      <c r="D51">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>52</v>
+      </c>
+      <c r="D52">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>55</v>
+      </c>
+      <c r="D55">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>12</v>
+      </c>
+      <c r="C56">
+        <v>56</v>
+      </c>
+      <c r="D56">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57">
+        <v>57</v>
+      </c>
+      <c r="D57">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>58</v>
+      </c>
+      <c r="D58">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>12</v>
+      </c>
+      <c r="C59">
+        <v>59</v>
+      </c>
+      <c r="D59">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>60</v>
+      </c>
+      <c r="D60">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61">
+        <v>61</v>
+      </c>
+      <c r="D61">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62">
+        <v>62</v>
+      </c>
+      <c r="D62">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63">
+        <v>63</v>
+      </c>
+      <c r="D63">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64">
+        <v>64</v>
+      </c>
+      <c r="D64">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65">
+        <v>65</v>
+      </c>
+      <c r="D65">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66">
+        <v>66</v>
+      </c>
+      <c r="D66">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67">
+        <v>67</v>
+      </c>
+      <c r="D67">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68">
+        <v>68</v>
+      </c>
+      <c r="D68">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69">
+        <v>69</v>
+      </c>
+      <c r="D69">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70">
+        <v>70</v>
+      </c>
+      <c r="D70">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71">
+        <v>71</v>
+      </c>
+      <c r="D71">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72">
+        <v>72</v>
+      </c>
+      <c r="D72">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73">
+        <v>73</v>
+      </c>
+      <c r="D73">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>74</v>
+      </c>
+      <c r="D74">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75">
+        <v>75</v>
+      </c>
+      <c r="D75">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99">
+        <v>398</v>
       </c>
     </row>
   </sheetData>

--- a/Monster/Work/Data/Data.xlsx
+++ b/Monster/Work/Data/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="18315" windowHeight="12105" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EggTable" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="33">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>minLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,6 +135,18 @@
   </si>
   <si>
     <t>3차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>evolMinLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬라임 전사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,15 +591,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -605,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
         <v>22</v>
@@ -646,7 +655,7 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -696,7 +705,7 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -743,18 +752,100 @@
         <v>1</v>
       </c>
       <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
     </row>
@@ -766,26 +857,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -796,10 +887,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -810,10 +901,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -824,10 +915,10 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -838,10 +929,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -852,10 +943,10 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -866,10 +957,10 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -880,10 +971,10 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -894,10 +985,10 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -908,13 +999,10 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -925,10 +1013,13 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -939,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -953,10 +1044,10 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -967,10 +1058,10 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -981,10 +1072,10 @@
         <v>12</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -995,10 +1086,10 @@
         <v>12</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1009,10 +1100,10 @@
         <v>12</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1023,10 +1114,10 @@
         <v>12</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1037,10 +1128,10 @@
         <v>12</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1051,10 +1142,10 @@
         <v>12</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1065,10 +1156,10 @@
         <v>12</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1079,10 +1170,10 @@
         <v>12</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1093,10 +1184,10 @@
         <v>12</v>
       </c>
       <c r="C23">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1107,10 +1198,10 @@
         <v>12</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1121,13 +1212,10 @@
         <v>12</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>102</v>
-      </c>
-      <c r="F25" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1138,10 +1226,13 @@
         <v>12</v>
       </c>
       <c r="C26">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,10 +1243,10 @@
         <v>12</v>
       </c>
       <c r="C27">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,10 +1257,10 @@
         <v>12</v>
       </c>
       <c r="C28">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D28">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1180,10 +1271,10 @@
         <v>12</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1194,10 +1285,10 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D30">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1208,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="C31">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1222,10 +1313,10 @@
         <v>12</v>
       </c>
       <c r="C32">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,10 +1327,10 @@
         <v>12</v>
       </c>
       <c r="C33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,10 +1355,10 @@
         <v>12</v>
       </c>
       <c r="C35">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,10 +1369,10 @@
         <v>12</v>
       </c>
       <c r="C36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,10 +1383,10 @@
         <v>12</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,10 +1397,10 @@
         <v>12</v>
       </c>
       <c r="C38">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D38">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,10 +1411,10 @@
         <v>12</v>
       </c>
       <c r="C39">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,10 +1425,10 @@
         <v>12</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1348,10 +1439,10 @@
         <v>12</v>
       </c>
       <c r="C41">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D41">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1362,10 +1453,10 @@
         <v>12</v>
       </c>
       <c r="C42">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D42">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1376,10 +1467,10 @@
         <v>12</v>
       </c>
       <c r="C43">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1390,10 +1481,10 @@
         <v>12</v>
       </c>
       <c r="C44">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1404,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="C45">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D45">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1418,10 +1509,10 @@
         <v>12</v>
       </c>
       <c r="C46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D46">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1432,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="C47">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D47">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="C48">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D48">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -1460,10 +1551,10 @@
         <v>12</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1474,13 +1565,10 @@
         <v>12</v>
       </c>
       <c r="C50">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50">
-        <v>202</v>
-      </c>
-      <c r="F50" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1491,10 +1579,13 @@
         <v>12</v>
       </c>
       <c r="C51">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51">
-        <v>206</v>
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1505,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="C52">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1519,10 +1610,10 @@
         <v>12</v>
       </c>
       <c r="C53">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1533,10 +1624,10 @@
         <v>12</v>
       </c>
       <c r="C54">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -1547,10 +1638,10 @@
         <v>12</v>
       </c>
       <c r="C55">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1561,10 +1652,10 @@
         <v>12</v>
       </c>
       <c r="C56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D56">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1575,10 +1666,10 @@
         <v>12</v>
       </c>
       <c r="C57">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D57">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1589,10 +1680,10 @@
         <v>12</v>
       </c>
       <c r="C58">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D58">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -1603,10 +1694,10 @@
         <v>12</v>
       </c>
       <c r="C59">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D59">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1617,10 +1708,10 @@
         <v>12</v>
       </c>
       <c r="C60">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D60">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1631,10 +1722,10 @@
         <v>12</v>
       </c>
       <c r="C61">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -1645,10 +1736,10 @@
         <v>12</v>
       </c>
       <c r="C62">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1659,10 +1750,10 @@
         <v>12</v>
       </c>
       <c r="C63">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D63">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1673,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="C64">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D64">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1687,10 +1778,10 @@
         <v>12</v>
       </c>
       <c r="C65">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D65">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1701,10 +1792,10 @@
         <v>12</v>
       </c>
       <c r="C66">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D66">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1715,10 +1806,10 @@
         <v>12</v>
       </c>
       <c r="C67">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D67">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1729,10 +1820,10 @@
         <v>12</v>
       </c>
       <c r="C68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D68">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1743,10 +1834,10 @@
         <v>12</v>
       </c>
       <c r="C69">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D69">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1757,10 +1848,10 @@
         <v>12</v>
       </c>
       <c r="C70">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D70">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1771,10 +1862,10 @@
         <v>12</v>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D71">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,10 +1876,10 @@
         <v>12</v>
       </c>
       <c r="C72">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D72">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1799,10 +1890,10 @@
         <v>12</v>
       </c>
       <c r="C73">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D73">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1813,10 +1904,10 @@
         <v>12</v>
       </c>
       <c r="C74">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D74">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1827,10 +1918,10 @@
         <v>12</v>
       </c>
       <c r="C75">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D75">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1841,10 +1932,10 @@
         <v>12</v>
       </c>
       <c r="C76">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D76">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1855,10 +1946,10 @@
         <v>12</v>
       </c>
       <c r="C77">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D77">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1869,10 +1960,10 @@
         <v>12</v>
       </c>
       <c r="C78">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D78">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1883,10 +1974,10 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1897,10 +1988,10 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D80">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1911,10 +2002,10 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D81">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1925,10 +2016,10 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D82">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1939,10 +2030,10 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1953,10 +2044,10 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D84">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1967,10 +2058,10 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1981,10 +2072,10 @@
         <v>12</v>
       </c>
       <c r="C86">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1995,10 +2086,10 @@
         <v>12</v>
       </c>
       <c r="C87">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D87">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2009,10 +2100,10 @@
         <v>12</v>
       </c>
       <c r="C88">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D88">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2023,10 +2114,10 @@
         <v>12</v>
       </c>
       <c r="C89">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D89">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2037,10 +2128,10 @@
         <v>12</v>
       </c>
       <c r="C90">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D90">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2051,10 +2142,10 @@
         <v>12</v>
       </c>
       <c r="C91">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D91">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2065,10 +2156,10 @@
         <v>12</v>
       </c>
       <c r="C92">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2079,10 +2170,10 @@
         <v>12</v>
       </c>
       <c r="C93">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D93">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2093,10 +2184,10 @@
         <v>12</v>
       </c>
       <c r="C94">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2107,10 +2198,10 @@
         <v>12</v>
       </c>
       <c r="C95">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D95">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2121,10 +2212,10 @@
         <v>12</v>
       </c>
       <c r="C96">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D96">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2135,10 +2226,10 @@
         <v>12</v>
       </c>
       <c r="C97">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D97">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2149,10 +2240,10 @@
         <v>12</v>
       </c>
       <c r="C98">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D98">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2163,9 +2254,23 @@
         <v>12</v>
       </c>
       <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100">
         <v>99</v>
       </c>
-      <c r="D99">
+      <c r="D100">
         <v>398</v>
       </c>
     </row>
